--- a/data/trans_orig/DIF_MES-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Edad-trans_orig.xlsx
@@ -8704,12 +8704,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -8719,12 +8719,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">

--- a/data/trans_orig/DIF_MES-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en País Vasco</t>
+          <t>Dificultad de llegar a fin de mes en País Vasco (tasa de respuesta: 93,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7149,7 +7149,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Andalucia</t>
+          <t>Dificultad de llegar a fin de mes en Andalucia (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13752,7 +13752,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en C.Valenciana</t>
+          <t>Dificultad de llegar a fin de mes en C.Valenciana (tasa de respuesta: 82,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -20355,7 +20355,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Barcelona</t>
+          <t>Dificultad de llegar a fin de mes en Barcelona (tasa de respuesta: 98,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
